--- a/gender.xlsx
+++ b/gender.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,32 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF86A3F-DF11-4DC6-8016-9DC0BC05334F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BDF359-E9AF-4310-9177-15238D6FC74D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20208" yWindow="636" windowWidth="17280" windowHeight="9024" tabRatio="181"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>gen_id</t>
-  </si>
-  <si>
     <t>gen_title</t>
   </si>
   <si>
@@ -74,12 +62,15 @@
   </si>
   <si>
     <t>War</t>
+  </si>
+  <si>
+    <t>genero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -507,7 +498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -521,10 +512,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +523,7 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +531,7 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +539,7 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +547,7 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +555,7 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +563,7 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +571,7 @@
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +579,7 @@
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +587,7 @@
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +595,7 @@
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +603,7 @@
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +611,7 @@
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +619,7 @@
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
